--- a/data/xiangmu/SYXM.xlsx
+++ b/data/xiangmu/SYXM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="261">
   <si>
     <t xml:space="preserve">龍泉編碼</t>
   </si>
@@ -2414,83 +2414,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">正文经名为：瑜伽師地論略纂   残缺页：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">P1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">P7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">P86</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">P87
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">正文经名为：瑜伽師地論略纂
-</t>
+    <t xml:space="preserve">正文经名为：瑜伽師地論略纂   残缺页：P1，P7，P86，P87</t>
   </si>
   <si>
     <t xml:space="preserve">LQ2449</t>
@@ -5437,8 +5361,8 @@
   </sheetPr>
   <dimension ref="A1:J268"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I:I"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E166" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I180" activeCellId="0" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10366,18 +10290,18 @@
         <v>67</v>
       </c>
       <c r="I180" s="25" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="C181" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D181" s="13" t="n">
         <v>1</v>
@@ -10398,13 +10322,13 @@
     </row>
     <row r="182" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="C182" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D182" s="13" t="n">
         <v>4</v>
@@ -10422,18 +10346,18 @@
         <v>69</v>
       </c>
       <c r="I182" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="C183" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D183" s="13" t="n">
         <v>6</v>
@@ -10451,18 +10375,18 @@
         <v>70</v>
       </c>
       <c r="I183" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="C184" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D184" s="13" t="n">
         <v>7</v>
@@ -10480,18 +10404,18 @@
         <v>71</v>
       </c>
       <c r="I184" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="C185" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D185" s="13" t="n">
         <v>8</v>
@@ -10509,18 +10433,18 @@
         <v>72</v>
       </c>
       <c r="I185" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="C186" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D186" s="13" t="n">
         <v>11</v>
@@ -10538,18 +10462,18 @@
         <v>73</v>
       </c>
       <c r="I186" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="C187" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D187" s="13" t="n">
         <v>12</v>
@@ -10567,18 +10491,18 @@
         <v>74</v>
       </c>
       <c r="I187" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="C188" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D188" s="13" t="n">
         <v>15</v>
@@ -10599,13 +10523,13 @@
     </row>
     <row r="189" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="C189" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C189" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D189" s="13" t="n">
         <v>17</v>
@@ -10623,18 +10547,18 @@
         <v>76</v>
       </c>
       <c r="I189" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="C190" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D190" s="13" t="n">
         <v>19</v>
@@ -10652,18 +10576,18 @@
         <v>77</v>
       </c>
       <c r="I190" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="C191" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D191" s="13" t="n">
         <v>20</v>
@@ -10681,18 +10605,18 @@
         <v>78</v>
       </c>
       <c r="I191" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="C192" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D192" s="13" t="n">
         <v>26</v>
@@ -10710,18 +10634,18 @@
         <v>79</v>
       </c>
       <c r="I192" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="C193" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D193" s="13" t="n">
         <v>28</v>
@@ -10739,18 +10663,18 @@
         <v>80</v>
       </c>
       <c r="I193" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="C194" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D194" s="13" t="n">
         <v>29</v>
@@ -10768,18 +10692,18 @@
         <v>81</v>
       </c>
       <c r="I194" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="C195" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D195" s="12" t="n">
         <v>30</v>
@@ -10797,18 +10721,18 @@
         <v>82</v>
       </c>
       <c r="I195" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="C196" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D196" s="12" t="n">
         <v>30</v>
@@ -10827,13 +10751,13 @@
     </row>
     <row r="197" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="C197" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D197" s="13" t="n">
         <v>32</v>
@@ -10851,18 +10775,18 @@
         <v>83</v>
       </c>
       <c r="I197" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="C198" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D198" s="13" t="n">
         <v>33</v>
@@ -10880,18 +10804,18 @@
         <v>84</v>
       </c>
       <c r="I198" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="C199" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D199" s="13" t="n">
         <v>34</v>
@@ -10909,18 +10833,18 @@
         <v>85</v>
       </c>
       <c r="I199" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="C200" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C200" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D200" s="13" t="n">
         <v>35</v>
@@ -10941,13 +10865,13 @@
     </row>
     <row r="201" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="C201" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C201" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D201" s="12" t="n">
         <v>38</v>
@@ -10965,18 +10889,18 @@
         <v>87</v>
       </c>
       <c r="I201" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="C202" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D202" s="13" t="n">
         <v>39</v>
@@ -10995,13 +10919,13 @@
     </row>
     <row r="203" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="C203" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D203" s="13" t="n">
         <v>40</v>
@@ -11020,13 +10944,13 @@
     </row>
     <row r="204" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="C204" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D204" s="23" t="n">
         <v>1</v>
@@ -11047,13 +10971,13 @@
     </row>
     <row r="205" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="C205" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D205" s="23" t="n">
         <v>2</v>
@@ -11071,18 +10995,18 @@
         <v>89</v>
       </c>
       <c r="I205" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="C206" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C206" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D206" s="23" t="n">
         <v>5</v>
@@ -11100,18 +11024,18 @@
         <v>90</v>
       </c>
       <c r="I206" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="C207" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C207" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D207" s="23" t="n">
         <v>6</v>
@@ -11129,18 +11053,18 @@
         <v>91</v>
       </c>
       <c r="I207" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="C208" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C208" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D208" s="23" t="n">
         <v>7</v>
@@ -11158,18 +11082,18 @@
         <v>92</v>
       </c>
       <c r="I208" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="C209" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C209" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D209" s="23" t="n">
         <v>8</v>
@@ -11187,18 +11111,18 @@
         <v>93</v>
       </c>
       <c r="I209" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="C210" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D210" s="23" t="n">
         <v>9</v>
@@ -11216,18 +11140,18 @@
         <v>94</v>
       </c>
       <c r="I210" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="C211" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C211" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D211" s="23" t="n">
         <v>10</v>
@@ -11245,18 +11169,18 @@
         <v>95</v>
       </c>
       <c r="I211" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="C212" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C212" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D212" s="23" t="n">
         <v>11</v>
@@ -11274,18 +11198,18 @@
         <v>96</v>
       </c>
       <c r="I212" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="C213" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D213" s="23" t="n">
         <v>16</v>
@@ -11303,18 +11227,18 @@
         <v>97</v>
       </c>
       <c r="I213" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="C214" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C214" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D214" s="23" t="n">
         <v>17</v>
@@ -11332,18 +11256,18 @@
         <v>98</v>
       </c>
       <c r="I214" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="C215" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C215" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D215" s="23" t="n">
         <v>19</v>
@@ -11361,18 +11285,18 @@
         <v>99</v>
       </c>
       <c r="I215" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="C216" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C216" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="D216" s="23" t="n">
         <v>20</v>
@@ -11390,18 +11314,18 @@
         <v>100</v>
       </c>
       <c r="I216" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="C217" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C217" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D217" s="13" t="n">
         <v>3</v>
@@ -11422,13 +11346,13 @@
     </row>
     <row r="218" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="C218" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D218" s="13" t="n">
         <v>4</v>
@@ -11449,13 +11373,13 @@
     </row>
     <row r="219" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B219" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="C219" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D219" s="13" t="n">
         <v>5</v>
@@ -11476,13 +11400,13 @@
     </row>
     <row r="220" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B220" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="C220" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C220" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D220" s="13" t="n">
         <v>6</v>
@@ -11503,13 +11427,13 @@
     </row>
     <row r="221" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="C221" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C221" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D221" s="13" t="n">
         <v>7</v>
@@ -11530,13 +11454,13 @@
     </row>
     <row r="222" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B222" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="C222" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C222" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D222" s="13" t="n">
         <v>8</v>
@@ -11557,13 +11481,13 @@
     </row>
     <row r="223" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="C223" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C223" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D223" s="13" t="n">
         <v>9</v>
@@ -11584,13 +11508,13 @@
     </row>
     <row r="224" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="C224" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C224" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D224" s="13" t="n">
         <v>10</v>
@@ -11611,13 +11535,13 @@
     </row>
     <row r="225" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="C225" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C225" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D225" s="13" t="n">
         <v>12</v>
@@ -11638,13 +11562,13 @@
     </row>
     <row r="226" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="C226" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C226" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D226" s="13" t="n">
         <v>13</v>
@@ -11665,13 +11589,13 @@
     </row>
     <row r="227" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="C227" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C227" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D227" s="13" t="n">
         <v>14</v>
@@ -11692,13 +11616,13 @@
     </row>
     <row r="228" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="C228" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C228" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D228" s="13" t="n">
         <v>15</v>
@@ -11719,13 +11643,13 @@
     </row>
     <row r="229" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="C229" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D229" s="13" t="n">
         <v>17</v>
@@ -11746,13 +11670,13 @@
     </row>
     <row r="230" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="C230" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C230" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D230" s="13" t="n">
         <v>19</v>
@@ -11773,13 +11697,13 @@
     </row>
     <row r="231" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="C231" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C231" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D231" s="13" t="n">
         <v>20</v>
@@ -11800,13 +11724,13 @@
     </row>
     <row r="232" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="C232" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C232" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D232" s="13" t="n">
         <v>3</v>
@@ -11827,13 +11751,13 @@
     </row>
     <row r="233" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="C233" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C233" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D233" s="13" t="n">
         <v>4</v>
@@ -11854,13 +11778,13 @@
     </row>
     <row r="234" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="C234" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C234" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D234" s="13" t="n">
         <v>5</v>
@@ -11881,13 +11805,13 @@
     </row>
     <row r="235" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="C235" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C235" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D235" s="13" t="n">
         <v>6</v>
@@ -11908,13 +11832,13 @@
     </row>
     <row r="236" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="C236" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D236" s="13" t="n">
         <v>7</v>
@@ -11935,13 +11859,13 @@
     </row>
     <row r="237" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="C237" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C237" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D237" s="13" t="n">
         <v>8</v>
@@ -11962,13 +11886,13 @@
     </row>
     <row r="238" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="C238" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C238" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D238" s="13" t="n">
         <v>10</v>
@@ -11989,13 +11913,13 @@
     </row>
     <row r="239" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="C239" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C239" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D239" s="13" t="n">
         <v>11</v>
@@ -12016,13 +11940,13 @@
     </row>
     <row r="240" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="C240" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C240" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D240" s="13" t="n">
         <v>12</v>
@@ -12043,13 +11967,13 @@
     </row>
     <row r="241" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="C241" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C241" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D241" s="13" t="n">
         <v>13</v>
@@ -12070,13 +11994,13 @@
     </row>
     <row r="242" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="C242" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C242" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D242" s="13" t="n">
         <v>14</v>
@@ -12097,13 +12021,13 @@
     </row>
     <row r="243" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B243" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="C243" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C243" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D243" s="13" t="n">
         <v>15</v>
@@ -12124,13 +12048,13 @@
     </row>
     <row r="244" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="C244" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C244" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D244" s="13" t="n">
         <v>16</v>
@@ -12151,13 +12075,13 @@
     </row>
     <row r="245" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B245" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="C245" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D245" s="13" t="n">
         <v>17</v>
@@ -12178,13 +12102,13 @@
     </row>
     <row r="246" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B246" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="C246" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D246" s="13" t="n">
         <v>18</v>
@@ -12205,13 +12129,13 @@
     </row>
     <row r="247" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B247" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="C247" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="C247" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="D247" s="13" t="n">
         <v>20</v>
@@ -12232,13 +12156,13 @@
     </row>
     <row r="248" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B248" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="C248" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="C248" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="D248" s="13" t="n">
         <v>2</v>
@@ -12254,18 +12178,18 @@
         <v>112</v>
       </c>
       <c r="I248" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B249" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="C249" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="C249" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="D249" s="13" t="n">
         <v>3</v>
@@ -12281,18 +12205,18 @@
         <v>112</v>
       </c>
       <c r="I249" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B250" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="C250" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C250" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D250" s="13" t="n">
         <v>1</v>
@@ -12310,18 +12234,18 @@
         <v>113</v>
       </c>
       <c r="I250" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B251" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="C251" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C251" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D251" s="13" t="n">
         <v>2</v>
@@ -12342,13 +12266,13 @@
     </row>
     <row r="252" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="C252" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C252" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D252" s="13" t="n">
         <v>4</v>
@@ -12369,13 +12293,13 @@
     </row>
     <row r="253" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="C253" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C253" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D253" s="13" t="n">
         <v>6</v>
@@ -12396,13 +12320,13 @@
     </row>
     <row r="254" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B254" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="C254" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C254" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D254" s="13" t="n">
         <v>8</v>
@@ -12420,18 +12344,18 @@
         <v>114</v>
       </c>
       <c r="I254" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B255" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="C255" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C255" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D255" s="13" t="n">
         <v>9</v>
@@ -12452,13 +12376,13 @@
     </row>
     <row r="256" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="C256" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C256" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D256" s="13" t="n">
         <v>10</v>
@@ -12476,18 +12400,18 @@
         <v>114</v>
       </c>
       <c r="I256" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="C257" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C257" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D257" s="13" t="n">
         <v>12</v>
@@ -12508,13 +12432,13 @@
     </row>
     <row r="258" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="C258" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C258" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D258" s="13" t="n">
         <v>13</v>
@@ -12535,13 +12459,13 @@
     </row>
     <row r="259" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="C259" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C259" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D259" s="13" t="n">
         <v>14</v>
@@ -12562,13 +12486,13 @@
     </row>
     <row r="260" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B260" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="C260" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C260" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D260" s="13" t="n">
         <v>16</v>
@@ -12586,18 +12510,18 @@
         <v>115</v>
       </c>
       <c r="I260" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="C261" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C261" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D261" s="13" t="n">
         <v>17</v>
@@ -12618,13 +12542,13 @@
     </row>
     <row r="262" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="C262" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C262" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D262" s="13" t="n">
         <v>18</v>
@@ -12645,13 +12569,13 @@
     </row>
     <row r="263" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B263" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="C263" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C263" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D263" s="13" t="n">
         <v>0</v>
@@ -12669,16 +12593,16 @@
         <v>116</v>
       </c>
       <c r="I263" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6"/>
       <c r="B264" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C264" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="C264" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="D264" s="13" t="n">
         <v>3</v>
@@ -12699,10 +12623,10 @@
     </row>
     <row r="265" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C265" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="C265" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="D265" s="13" t="n">
         <v>3</v>
@@ -12720,18 +12644,18 @@
         <v>118</v>
       </c>
       <c r="I265" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="C266" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="C266" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="D266" s="13" t="n">
         <v>2</v>
@@ -12752,13 +12676,13 @@
     </row>
     <row r="267" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="C267" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="C267" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="D267" s="13" t="n">
         <v>4</v>
@@ -12776,18 +12700,18 @@
         <v>120</v>
       </c>
       <c r="I267" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B268" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="C268" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="C268" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="D268" s="13" t="n">
         <v>1</v>
@@ -12825,7 +12749,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="I:I J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12851,7 +12775,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I:I A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
